--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -646,31 +646,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 63049-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 63049-2019.xlsx", "A 63049-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 63049-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 63049-2019.png", "A 63049-2019")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 63049-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 63049-2019.png", "A 63049-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 63049-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 63049-2019.docx", "A 63049-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 63049-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 63049-2019.docx", "A 63049-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 63049-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 63049-2019.docx", "A 63049-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 63049-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 63049-2019.docx", "A 63049-2019")</f>
         <v/>
       </c>
     </row>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 49409-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 49409-2018.xlsx", "A 49409-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 49409-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 49409-2018.png", "A 49409-2018")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 49409-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 49409-2018.png", "A 49409-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 49409-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 49409-2018.docx", "A 49409-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 49409-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 49409-2018.docx", "A 49409-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 49409-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 49409-2018.docx", "A 49409-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 49409-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 49409-2018.docx", "A 49409-2018")</f>
         <v/>
       </c>
     </row>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,31 +866,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 10782-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 10782-2020.xlsx", "A 10782-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 10782-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 10782-2020.png", "A 10782-2020")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 10782-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 10782-2020.png", "A 10782-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 10782-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 10782-2020.docx", "A 10782-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 10782-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 10782-2020.docx", "A 10782-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 10782-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 10782-2020.docx", "A 10782-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 10782-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 10782-2020.docx", "A 10782-2020")</f>
         <v/>
       </c>
     </row>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,27 +970,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 43624-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 43624-2018.xlsx", "A 43624-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 43624-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 43624-2018.png", "A 43624-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 43624-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 43624-2018.docx", "A 43624-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 43624-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 43624-2018.docx", "A 43624-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 43624-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 43624-2018.docx", "A 43624-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 43624-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 43624-2018.docx", "A 43624-2018")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,31 +1059,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 7193-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 7193-2020.xlsx", "A 7193-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 7193-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 7193-2020.png", "A 7193-2020")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 7193-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 7193-2020.png", "A 7193-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 7193-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 7193-2020.docx", "A 7193-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 7193-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 7193-2020.docx", "A 7193-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 7193-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 7193-2020.docx", "A 7193-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 7193-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 7193-2020.docx", "A 7193-2020")</f>
         <v/>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,27 +1152,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 14622-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 14622-2023.xlsx", "A 14622-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 14622-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 14622-2023.png", "A 14622-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 14622-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 14622-2023.docx", "A 14622-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 14622-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 14622-2023.docx", "A 14622-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 14622-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 14622-2023.docx", "A 14622-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 14622-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 14622-2023.docx", "A 14622-2023")</f>
         <v/>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,31 +1239,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 38061-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 38061-2018.xlsx", "A 38061-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 38061-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 38061-2018.png", "A 38061-2018")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 38061-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 38061-2018.png", "A 38061-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 38061-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 38061-2018.docx", "A 38061-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 38061-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 38061-2018.docx", "A 38061-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 38061-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 38061-2018.docx", "A 38061-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 38061-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 38061-2018.docx", "A 38061-2018")</f>
         <v/>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,27 +1335,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 17053-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 17053-2023.xlsx", "A 17053-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 17053-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 17053-2023.png", "A 17053-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 17053-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 17053-2023.docx", "A 17053-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 17053-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 17053-2023.docx", "A 17053-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 17053-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 17053-2023.docx", "A 17053-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 17053-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 17053-2023.docx", "A 17053-2023")</f>
         <v/>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,27 +1426,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 72196-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 72196-2018.xlsx", "A 72196-2018")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 72196-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 72196-2018.png", "A 72196-2018")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 72196-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 72196-2018.docx", "A 72196-2018")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 72196-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 72196-2018.docx", "A 72196-2018")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 72196-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 72196-2018.docx", "A 72196-2018")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 72196-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 72196-2018.docx", "A 72196-2018")</f>
         <v/>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,31 +1512,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 66086-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 66086-2019.xlsx", "A 66086-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 66086-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 66086-2019.png", "A 66086-2019")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 66086-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 66086-2019.png", "A 66086-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 66086-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 66086-2019.docx", "A 66086-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 66086-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 66086-2019.docx", "A 66086-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 66086-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 66086-2019.docx", "A 66086-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 66086-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 66086-2019.docx", "A 66086-2019")</f>
         <v/>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,27 +1607,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 2313-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 2313-2021.xlsx", "A 2313-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 2313-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 2313-2021.png", "A 2313-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 2313-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 2313-2021.docx", "A 2313-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 2313-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 2313-2021.docx", "A 2313-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 2313-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 2313-2021.docx", "A 2313-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 2313-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 2313-2021.docx", "A 2313-2021")</f>
         <v/>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1693,31 +1693,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 25843-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 25843-2021.xlsx", "A 25843-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 25843-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 25843-2021.png", "A 25843-2021")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 25843-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 25843-2021.png", "A 25843-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 25843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 25843-2021.docx", "A 25843-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 25843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 25843-2021.docx", "A 25843-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 25843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 25843-2021.docx", "A 25843-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 25843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 25843-2021.docx", "A 25843-2021")</f>
         <v/>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,31 +1788,31 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 17082-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 17082-2023.xlsx", "A 17082-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 17082-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 17082-2023.png", "A 17082-2023")</f>
         <v/>
       </c>
       <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 17082-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 17082-2023.png", "A 17082-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 17082-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 17082-2023.docx", "A 17082-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 17082-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 17082-2023.docx", "A 17082-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 17082-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 17082-2023.docx", "A 17082-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 17082-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 17082-2023.docx", "A 17082-2023")</f>
         <v/>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1878,31 +1878,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 32563-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 32563-2023.xlsx", "A 32563-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 32563-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 32563-2023.png", "A 32563-2023")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 32563-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 32563-2023.png", "A 32563-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 32563-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 32563-2023.docx", "A 32563-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 32563-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 32563-2023.docx", "A 32563-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 32563-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 32563-2023.docx", "A 32563-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 32563-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 32563-2023.docx", "A 32563-2023")</f>
         <v/>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,27 +1967,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 25391-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 25391-2021.xlsx", "A 25391-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 25391-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 25391-2021.png", "A 25391-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 25391-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 25391-2021.docx", "A 25391-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 25391-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 25391-2021.docx", "A 25391-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 25391-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 25391-2021.docx", "A 25391-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 25391-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 25391-2021.docx", "A 25391-2021")</f>
         <v/>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2052,27 +2052,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 56825-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 56825-2021.xlsx", "A 56825-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 56825-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 56825-2021.png", "A 56825-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 56825-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 56825-2021.docx", "A 56825-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 56825-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 56825-2021.docx", "A 56825-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 56825-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 56825-2021.docx", "A 56825-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 56825-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 56825-2021.docx", "A 56825-2021")</f>
         <v/>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2137,27 +2137,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 41745-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 41745-2022.xlsx", "A 41745-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 41745-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 41745-2022.png", "A 41745-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 41745-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 41745-2022.docx", "A 41745-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 41745-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 41745-2022.docx", "A 41745-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 41745-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 41745-2022.docx", "A 41745-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 41745-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 41745-2022.docx", "A 41745-2022")</f>
         <v/>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2222,27 +2222,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 52304-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 52304-2022.xlsx", "A 52304-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 52304-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 52304-2022.png", "A 52304-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 52304-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 52304-2022.docx", "A 52304-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 52304-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 52304-2022.docx", "A 52304-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 52304-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 52304-2022.docx", "A 52304-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 52304-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 52304-2022.docx", "A 52304-2022")</f>
         <v/>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2312,27 +2312,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 23087-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 23087-2023.xlsx", "A 23087-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 23087-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 23087-2023.png", "A 23087-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 23087-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 23087-2023.docx", "A 23087-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 23087-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 23087-2023.docx", "A 23087-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 23087-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 23087-2023.docx", "A 23087-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 23087-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 23087-2023.docx", "A 23087-2023")</f>
         <v/>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,31 +2397,31 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 23690-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 23690-2023.xlsx", "A 23690-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 23690-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 23690-2023.png", "A 23690-2023")</f>
         <v/>
       </c>
       <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 23690-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 23690-2023.png", "A 23690-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 23690-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 23690-2023.docx", "A 23690-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 23690-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 23690-2023.docx", "A 23690-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 23690-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 23690-2023.docx", "A 23690-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 23690-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 23690-2023.docx", "A 23690-2023")</f>
         <v/>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y244"/>
+  <dimension ref="A1:Y247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44480</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44827</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44869</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45075</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45077</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43335</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43350</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43377</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43452</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43468</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>43507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>43508</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43580</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43584</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>43591</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>43593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43633</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43635</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43685</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43710</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43720</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43752</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43766</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43769</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43784</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43842</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43859</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43872</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43899</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43913</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44005</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44014</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44048</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44090</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44098</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44151</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44171</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44193</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44194</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44218</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44224</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44239</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44342</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44360</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44368</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44441</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44473</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44480</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44532</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44550</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44694</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44719</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44805</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44827</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44848</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44849</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44925</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45005</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45016</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45028</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45029</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45042</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45043</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>45047</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45056</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45078</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45084</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45093</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45112</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45122</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45128</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="R243" s="2" t="inlineStr"/>
     </row>
-    <row r="244">
+    <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
           <t>A 40140-2023</t>
@@ -15439,7 +15439,7 @@
         <v>45169</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15490,6 +15490,192 @@
         <v>0</v>
       </c>
       <c r="R244" s="2" t="inlineStr"/>
+    </row>
+    <row r="245" ht="15" customHeight="1">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>A 45065-2023</t>
+        </is>
+      </c>
+      <c r="B245" s="1" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C245" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" s="2" t="inlineStr"/>
+    </row>
+    <row r="246" ht="15" customHeight="1">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>A 45051-2023</t>
+        </is>
+      </c>
+      <c r="B246" s="1" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C246" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" s="2" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>A 45066-2023</t>
+        </is>
+      </c>
+      <c r="B247" s="1" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C247" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y247"/>
+  <dimension ref="A1:Y251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,590 +1909,624 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
+          <t>A 46028-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Norrlandsspindling
+Dofttaggsvamp</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 46028-2023.xlsx", "A 46028-2023")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 46028-2023.png", "A 46028-2023")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 46028-2023.docx", "A 46028-2023")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 46028-2023.docx", "A 46028-2023")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 46028-2023.docx", "A 46028-2023")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 46028-2023.docx", "A 46028-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>A 25391-2021</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44342</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>4.2</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 25391-2021.xlsx", "A 25391-2021")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 25391-2021.png", "A 25391-2021")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 25391-2021.docx", "A 25391-2021")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 25391-2021.docx", "A 25391-2021")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 25391-2021.docx", "A 25391-2021")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 25391-2021.docx", "A 25391-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 56825-2021</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44480</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>2.4</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 56825-2021.xlsx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 56825-2021.png", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 56825-2021.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 56825-2021.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 56825-2021.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 56825-2021.docx", "A 56825-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 41745-2022</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44827</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>12.7</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Järpe</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 41745-2022.xlsx", "A 41745-2022")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 41745-2022.png", "A 41745-2022")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 41745-2022.docx", "A 41745-2022")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 41745-2022.docx", "A 41745-2022")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 41745-2022.docx", "A 41745-2022")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 41745-2022.docx", "A 41745-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 52304-2022</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44869</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="C20" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>14.5</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 52304-2022.xlsx", "A 52304-2022")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 52304-2022.png", "A 52304-2022")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 52304-2022.docx", "A 52304-2022")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 52304-2022.docx", "A 52304-2022")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 52304-2022.docx", "A 52304-2022")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 52304-2022.docx", "A 52304-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 23087-2023</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>45075</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C21" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>8.4</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Plattlummer</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 23087-2023.xlsx", "A 23087-2023")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 23087-2023.png", "A 23087-2023")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 23087-2023.docx", "A 23087-2023")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 23087-2023.docx", "A 23087-2023")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 23087-2023.docx", "A 23087-2023")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 23087-2023.docx", "A 23087-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 23690-2023</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>45077</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C22" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>2.4</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/artfynd/A 23690-2023.xlsx", "A 23690-2023")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/kartor/A 23690-2023.png", "A 23690-2023")</f>
         <v/>
       </c>
-      <c r="U21">
+      <c r="U22">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/knärot/A 23690-2023.png", "A 23690-2023")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomål/A 23690-2023.docx", "A 23690-2023")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/klagomålsmail/A 23690-2023.docx", "A 23690-2023")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsyn/A 23690-2023.docx", "A 23690-2023")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORBERG/tillsynsmail/A 23690-2023.docx", "A 23690-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 36248-2018</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>43328</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr"/>
-    </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 37868-2018</t>
+          <t>A 36248-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43335</v>
+        <v>43328</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2504,13 +2538,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>9.1</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2547,14 +2576,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 39958-2018</t>
+          <t>A 37868-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43343</v>
+        <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,8 +2595,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>9.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2604,14 +2638,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 41374-2018</t>
+          <t>A 39958-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43346</v>
+        <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2624,7 +2658,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2661,14 +2695,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 42745-2018</t>
+          <t>A 41374-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43350</v>
+        <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2681,7 +2715,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2718,14 +2752,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43317-2018</t>
+          <t>A 42745-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43353</v>
+        <v>43350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2738,7 +2772,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2775,14 +2809,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43378-2018</t>
+          <t>A 43317-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43356</v>
+        <v>43353</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2795,7 +2829,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2832,14 +2866,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 43363-2018</t>
+          <t>A 43378-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2852,7 +2886,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>16.1</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2889,14 +2923,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 50552-2018</t>
+          <t>A 43363-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43377</v>
+        <v>43356</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2909,7 +2943,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>16.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2946,14 +2980,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 54313-2018</t>
+          <t>A 50552-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43389</v>
+        <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2966,7 +3000,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,14 +3037,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 63940-2018</t>
+          <t>A 54313-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3022,13 +3056,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3065,14 +3094,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 52700-2018</t>
+          <t>A 63940-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3090,7 +3119,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3127,14 +3156,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55584-2018</t>
+          <t>A 52700-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43397</v>
+        <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3146,8 +3175,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>10.6</v>
+        <v>2.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3184,14 +3218,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 63994-2018</t>
+          <t>A 55584-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43418</v>
+        <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3204,7 +3238,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>10.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3241,14 +3275,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62605-2018</t>
+          <t>A 63994-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43426</v>
+        <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3260,13 +3294,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3303,14 +3332,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 69523-2018</t>
+          <t>A 62605-2018</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43444</v>
+        <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3322,8 +3351,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3360,14 +3394,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 69535-2018</t>
+          <t>A 69523-2018</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3380,7 +3414,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3417,14 +3451,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 70058-2018</t>
+          <t>A 69535-2018</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43448</v>
+        <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3436,13 +3470,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>15.7</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3479,14 +3508,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 70068-2018</t>
+          <t>A 70058-2018</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3504,7 +3533,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>22.7</v>
+        <v>15.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3541,14 +3570,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 70848-2018</t>
+          <t>A 70068-2018</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43452</v>
+        <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3566,7 +3595,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.8</v>
+        <v>22.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3603,14 +3632,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 339-2019</t>
+          <t>A 70848-2018</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43468</v>
+        <v>43452</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3622,8 +3651,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3660,14 +3694,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 342-2019</t>
+          <t>A 339-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3680,7 +3714,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3717,14 +3751,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 390-2019</t>
+          <t>A 342-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3737,7 +3771,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3774,14 +3808,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 3010-2019</t>
+          <t>A 390-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43473</v>
+        <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3794,7 +3828,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3831,14 +3865,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 9503-2019</t>
+          <t>A 3010-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43507</v>
+        <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3851,7 +3885,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3888,14 +3922,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 9743-2019</t>
+          <t>A 9503-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43508</v>
+        <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3908,7 +3942,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>8.699999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3945,14 +3979,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16932-2019</t>
+          <t>A 9743-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43549</v>
+        <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3964,13 +3998,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4007,14 +4036,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 17486-2019</t>
+          <t>A 16932-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43553</v>
+        <v>43549</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4026,8 +4055,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4064,14 +4098,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 17568-2019</t>
+          <t>A 17486-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4084,7 +4118,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>11.3</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4121,14 +4155,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 17482-2019</t>
+          <t>A 17568-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4141,7 +4175,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>11.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4178,14 +4212,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 17490-2019</t>
+          <t>A 17482-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4198,7 +4232,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.9</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4235,14 +4269,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17491-2019</t>
+          <t>A 17490-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4292,14 +4326,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17569-2019</t>
+          <t>A 17491-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4312,7 +4346,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>5.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4349,14 +4383,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20096-2019</t>
+          <t>A 17569-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43570</v>
+        <v>43553</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4369,7 +4403,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4406,14 +4440,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 21396-2019</t>
+          <t>A 20096-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43580</v>
+        <v>43570</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4425,13 +4459,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4468,14 +4497,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 21392-2019</t>
+          <t>A 21396-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4493,7 +4522,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4530,14 +4559,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 21859-2019</t>
+          <t>A 21392-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43584</v>
+        <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4555,7 +4584,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4592,14 +4621,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 23153-2019</t>
+          <t>A 21859-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43588</v>
+        <v>43584</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,8 +4640,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4649,14 +4683,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 22947-2019</t>
+          <t>A 23153-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43591</v>
+        <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4669,7 +4703,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4706,14 +4740,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 22953-2019</t>
+          <t>A 22947-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4726,7 +4760,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4763,14 +4797,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 23592-2019</t>
+          <t>A 22953-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43593</v>
+        <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4783,7 +4817,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4820,14 +4854,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28136-2019</t>
+          <t>A 23592-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43621</v>
+        <v>43593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4839,13 +4873,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4882,14 +4911,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28170-2019</t>
+          <t>A 28136-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4907,7 +4936,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4944,14 +4973,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 29832-2019</t>
+          <t>A 28170-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43629</v>
+        <v>43621</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4963,8 +4992,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5001,14 +5035,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 29961-2019</t>
+          <t>A 29832-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43633</v>
+        <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5020,13 +5054,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5063,14 +5092,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 31029-2019</t>
+          <t>A 29961-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43635</v>
+        <v>43633</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5082,8 +5111,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5120,14 +5154,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31748-2019</t>
+          <t>A 31029-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43642</v>
+        <v>43635</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5139,13 +5173,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5182,14 +5211,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 32245-2019</t>
+          <t>A 31748-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43643</v>
+        <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5201,8 +5230,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5239,14 +5273,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 35074-2019</t>
+          <t>A 32245-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43661</v>
+        <v>43643</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5258,13 +5292,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5301,14 +5330,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 37524-2019</t>
+          <t>A 35074-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43679</v>
+        <v>43661</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5320,8 +5349,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5358,14 +5392,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39198-2019</t>
+          <t>A 37524-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43685</v>
+        <v>43679</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5378,7 +5412,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5415,14 +5449,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 45467-2019</t>
+          <t>A 39198-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43710</v>
+        <v>43685</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5435,7 +5469,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5472,14 +5506,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 47197-2019</t>
+          <t>A 45467-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43720</v>
+        <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5492,7 +5526,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5529,14 +5563,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47217-2019</t>
+          <t>A 47197-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5549,7 +5583,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5586,14 +5620,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 50359-2019</t>
+          <t>A 47217-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43735</v>
+        <v>43720</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5605,13 +5639,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5648,14 +5677,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 55079-2019</t>
+          <t>A 50359-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43752</v>
+        <v>43735</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5667,8 +5696,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5705,14 +5739,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 58582-2019</t>
+          <t>A 55079-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43766</v>
+        <v>43752</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5725,7 +5759,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>11.3</v>
+        <v>5.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5762,14 +5796,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 58573-2019</t>
+          <t>A 58582-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5782,7 +5816,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>11.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5819,14 +5853,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 58555-2019</t>
+          <t>A 58573-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5839,7 +5873,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5876,14 +5910,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 58579-2019</t>
+          <t>A 58555-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5896,7 +5930,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.9</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5933,14 +5967,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57997-2019</t>
+          <t>A 58579-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43769</v>
+        <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5953,7 +5987,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>6.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5990,14 +6024,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 59891-2019</t>
+          <t>A 57997-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43774</v>
+        <v>43769</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6010,7 +6044,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6047,14 +6081,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 61555-2019</t>
+          <t>A 59891-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43784</v>
+        <v>43774</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6066,13 +6100,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>12.9</v>
+        <v>2.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6109,14 +6138,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 67711-2019</t>
+          <t>A 61555-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43810</v>
+        <v>43784</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6128,8 +6157,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>9</v>
+        <v>12.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6166,14 +6200,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 1288-2020</t>
+          <t>A 67711-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43842</v>
+        <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6186,7 +6220,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.3</v>
+        <v>9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6223,14 +6257,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4951-2020</t>
+          <t>A 1288-2020</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43859</v>
+        <v>43842</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6243,7 +6277,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6280,14 +6314,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 4978-2020</t>
+          <t>A 4951-2020</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6300,7 +6334,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6337,14 +6371,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7735-2020</t>
+          <t>A 4978-2020</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43872</v>
+        <v>43859</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6357,7 +6391,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6394,14 +6428,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9583-2020</t>
+          <t>A 7735-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43881</v>
+        <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6413,13 +6447,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6456,14 +6485,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9989-2020</t>
+          <t>A 9583-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43882</v>
+        <v>43881</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6475,8 +6504,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6513,14 +6547,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10006-2020</t>
+          <t>A 9989-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6533,7 +6567,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6570,14 +6604,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10000-2020</t>
+          <t>A 10006-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6590,7 +6624,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6627,14 +6661,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 10001-2020</t>
+          <t>A 10000-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6647,7 +6681,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.9</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6684,14 +6718,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10783-2020</t>
+          <t>A 10001-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43888</v>
+        <v>43882</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6703,13 +6737,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6746,14 +6775,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 10917-2020</t>
+          <t>A 10783-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6767,11 +6796,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>10.1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6808,14 +6837,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10905-2020</t>
+          <t>A 10917-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6833,7 +6862,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6</v>
+        <v>10.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6870,14 +6899,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 11629-2020</t>
+          <t>A 10905-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43893</v>
+        <v>43889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6889,8 +6918,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6927,14 +6961,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 11826-2020</t>
+          <t>A 11629-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6984,14 +7018,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12621-2020</t>
+          <t>A 11826-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43899</v>
+        <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7004,7 +7038,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>9.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7041,14 +7075,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 15179-2020</t>
+          <t>A 12621-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43913</v>
+        <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7060,13 +7094,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>8.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7103,14 +7132,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 15546-2020</t>
+          <t>A 15179-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7122,8 +7151,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7160,14 +7194,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 20480-2020</t>
+          <t>A 15546-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>43948</v>
+        <v>43914</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7180,7 +7214,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7217,14 +7251,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 20483-2020</t>
+          <t>A 20480-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7237,7 +7271,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7274,14 +7308,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 22413-2020</t>
+          <t>A 20483-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>43963</v>
+        <v>43948</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7328,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7331,14 +7365,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 23517-2020</t>
+          <t>A 22413-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43969</v>
+        <v>43963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7351,7 +7385,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7388,14 +7422,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 29606-2020</t>
+          <t>A 23517-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44005</v>
+        <v>43969</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7407,13 +7441,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7450,14 +7479,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 31719-2020</t>
+          <t>A 29606-2020</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44014</v>
+        <v>44005</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7504,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7512,14 +7541,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 36173-2020</t>
+          <t>A 31719-2020</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44048</v>
+        <v>44014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7531,8 +7560,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7569,14 +7603,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 44363-2020</t>
+          <t>A 36173-2020</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44084</v>
+        <v>44048</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7588,13 +7622,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7631,14 +7660,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 45802-2020</t>
+          <t>A 44363-2020</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44090</v>
+        <v>44084</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7650,8 +7679,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7688,14 +7722,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45800-2020</t>
+          <t>A 45802-2020</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7708,7 +7742,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7745,14 +7779,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47514-2020</t>
+          <t>A 45800-2020</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44098</v>
+        <v>44090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7765,7 +7799,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7802,14 +7836,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 52006-2020</t>
+          <t>A 47514-2020</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44116</v>
+        <v>44098</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7822,7 +7856,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7859,14 +7893,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 60161-2020</t>
+          <t>A 52006-2020</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44151</v>
+        <v>44116</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7879,7 +7913,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7916,14 +7950,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 60442-2020</t>
+          <t>A 60161-2020</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7936,7 +7970,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7973,14 +8007,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 63718-2020</t>
+          <t>A 60442-2020</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44162</v>
+        <v>44151</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7993,7 +8027,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8030,14 +8064,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 64885-2020</t>
+          <t>A 63718-2020</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44171</v>
+        <v>44162</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8050,7 +8084,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8087,14 +8121,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 69514-2020</t>
+          <t>A 64885-2020</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44193</v>
+        <v>44171</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8107,7 +8141,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8144,14 +8178,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 69450-2020</t>
+          <t>A 69514-2020</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8163,13 +8197,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8206,14 +8235,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 69590-2020</t>
+          <t>A 69450-2020</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8231,7 +8260,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8268,14 +8297,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4183-2021</t>
+          <t>A 69590-2020</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44218</v>
+        <v>44194</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8287,8 +8316,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8325,14 +8359,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4471-2021</t>
+          <t>A 4183-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44224</v>
+        <v>44218</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8345,7 +8379,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8382,14 +8416,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7642-2021</t>
+          <t>A 4471-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8402,7 +8436,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8439,14 +8473,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 8205-2021</t>
+          <t>A 7642-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44244</v>
+        <v>44239</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8459,7 +8493,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>10.4</v>
+        <v>3.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8496,14 +8530,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 10339-2021</t>
+          <t>A 8205-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44257</v>
+        <v>44244</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8516,7 +8550,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>13.8</v>
+        <v>10.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8553,14 +8587,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 11448-2021</t>
+          <t>A 10339-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44264</v>
+        <v>44257</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8572,13 +8606,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>3.9</v>
+        <v>13.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8615,14 +8644,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 14405-2021</t>
+          <t>A 11448-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8640,7 +8669,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8677,14 +8706,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17103-2021</t>
+          <t>A 14405-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44298</v>
+        <v>44279</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,14 +8768,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 19030-2021</t>
+          <t>A 17103-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44308</v>
+        <v>44298</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8758,8 +8787,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8796,14 +8830,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 25364-2021</t>
+          <t>A 19030-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44342</v>
+        <v>44308</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8816,7 +8850,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8853,14 +8887,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 26444-2021</t>
+          <t>A 25364-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44348</v>
+        <v>44342</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8872,13 +8906,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8915,14 +8944,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 26899-2021</t>
+          <t>A 26444-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8934,8 +8963,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8972,14 +9006,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 26891-2021</t>
+          <t>A 26899-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8992,7 +9026,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9029,14 +9063,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 26910-2021</t>
+          <t>A 26891-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9049,7 +9083,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9086,14 +9120,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 28458-2021</t>
+          <t>A 26910-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44356</v>
+        <v>44349</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9106,7 +9140,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9143,14 +9177,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 29244-2021</t>
+          <t>A 28458-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44360</v>
+        <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9162,13 +9196,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9205,14 +9234,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 31257-2021</t>
+          <t>A 29244-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44368</v>
+        <v>44360</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9226,11 +9255,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9267,14 +9296,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 45934-2021</t>
+          <t>A 31257-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44441</v>
+        <v>44368</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9286,8 +9315,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9324,14 +9358,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45929-2021</t>
+          <t>A 45934-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9344,7 +9378,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9381,14 +9415,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 48143-2021</t>
+          <t>A 45929-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44449</v>
+        <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9400,13 +9434,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9443,14 +9472,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 48544-2021</t>
+          <t>A 48143-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44452</v>
+        <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9462,8 +9491,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9500,14 +9534,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 53297-2021</t>
+          <t>A 48544-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44467</v>
+        <v>44452</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9520,7 +9554,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9557,14 +9591,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54864-2021</t>
+          <t>A 53297-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44473</v>
+        <v>44467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9577,7 +9611,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9614,14 +9648,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56929-2021</t>
+          <t>A 54864-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44480</v>
+        <v>44473</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9634,7 +9668,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9671,14 +9705,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 56936-2021</t>
+          <t>A 56929-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9691,7 +9725,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9728,14 +9762,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56940-2021</t>
+          <t>A 56936-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9748,7 +9782,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9785,14 +9819,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 67356-2021</t>
+          <t>A 56940-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44523</v>
+        <v>44480</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9805,7 +9839,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9842,14 +9876,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 67361-2021</t>
+          <t>A 67356-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9862,7 +9896,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9899,14 +9933,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 69758-2021</t>
+          <t>A 67361-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44532</v>
+        <v>44523</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9919,7 +9953,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9956,14 +9990,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 70661-2021</t>
+          <t>A 69758-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44537</v>
+        <v>44532</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9976,7 +10010,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10013,14 +10047,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 73083-2021</t>
+          <t>A 70661-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44550</v>
+        <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10032,13 +10066,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>10.1</v>
+        <v>4.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10075,14 +10104,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2312-2022</t>
+          <t>A 73083-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44578</v>
+        <v>44550</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10094,8 +10123,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>0.4</v>
+        <v>10.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10132,14 +10166,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 6353-2022</t>
+          <t>A 2312-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44600</v>
+        <v>44578</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10152,7 +10186,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10189,14 +10223,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 12233-2022</t>
+          <t>A 6353-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44635</v>
+        <v>44600</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10209,7 +10243,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10246,14 +10280,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 18326-2022</t>
+          <t>A 12233-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44685</v>
+        <v>44635</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10266,7 +10300,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.8</v>
+        <v>0.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10303,14 +10337,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 19075-2022</t>
+          <t>A 18326-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44691</v>
+        <v>44685</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10322,13 +10356,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10365,14 +10394,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 19073-2022</t>
+          <t>A 19075-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10390,7 +10419,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10427,14 +10456,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 19076-2022</t>
+          <t>A 19073-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10452,7 +10481,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10489,14 +10518,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 19636-2022</t>
+          <t>A 19076-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44694</v>
+        <v>44691</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10510,11 +10539,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>10.1</v>
+        <v>5.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10551,14 +10580,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 20567-2022</t>
+          <t>A 19636-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44700</v>
+        <v>44694</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10576,7 +10605,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.8</v>
+        <v>10.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10613,14 +10642,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 23009-2022</t>
+          <t>A 20567-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44719</v>
+        <v>44700</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10638,7 +10667,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>18</v>
+        <v>3.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10675,14 +10704,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 35684-2022</t>
+          <t>A 23009-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44799</v>
+        <v>44719</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10696,11 +10725,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>6.8</v>
+        <v>18</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10737,14 +10766,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 36838-2022</t>
+          <t>A 35684-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44805</v>
+        <v>44799</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10762,7 +10791,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>16.1</v>
+        <v>6.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10799,14 +10828,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 36836-2022</t>
+          <t>A 36838-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10818,8 +10847,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>5.9</v>
+        <v>16.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10856,14 +10890,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 36839-2022</t>
+          <t>A 36836-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,13 +10909,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10918,14 +10947,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 38725-2022</t>
+          <t>A 36839-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44815</v>
+        <v>44805</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10943,7 +10972,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10980,14 +11009,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 38903-2022</t>
+          <t>A 38725-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44816</v>
+        <v>44815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11005,7 +11034,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11042,14 +11071,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 38905-2022</t>
+          <t>A 38903-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11067,7 +11096,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>20.5</v>
+        <v>1.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11104,14 +11133,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 41739-2022</t>
+          <t>A 38905-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44827</v>
+        <v>44816</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11123,8 +11152,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>4.9</v>
+        <v>20.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11161,14 +11195,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 41742-2022</t>
+          <t>A 41739-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11181,7 +11215,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11218,14 +11252,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 41748-2022</t>
+          <t>A 41742-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11238,7 +11272,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>6.8</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11275,14 +11309,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 41744-2022</t>
+          <t>A 41748-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11295,7 +11329,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11332,14 +11366,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 41750-2022</t>
+          <t>A 41744-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11352,7 +11386,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11389,14 +11423,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 43073-2022</t>
+          <t>A 41750-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44833</v>
+        <v>44827</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11409,7 +11443,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11446,14 +11480,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 43072-2022</t>
+          <t>A 43073-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11466,7 +11500,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11503,14 +11537,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 43076-2022</t>
+          <t>A 43072-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11523,7 +11557,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11560,14 +11594,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 43075-2022</t>
+          <t>A 43076-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11580,7 +11614,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11617,14 +11651,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 46369-2022</t>
+          <t>A 43075-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44848</v>
+        <v>44833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11637,7 +11671,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11674,14 +11708,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 46641-2022</t>
+          <t>A 46369-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44849</v>
+        <v>44848</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,13 +11727,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11736,14 +11765,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 47607-2022</t>
+          <t>A 46641-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44852</v>
+        <v>44849</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,8 +11784,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11793,14 +11827,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 47599-2022</t>
+          <t>A 47607-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11813,7 +11847,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11850,14 +11884,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 47610-2022</t>
+          <t>A 47599-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11870,7 +11904,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11907,14 +11941,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 50124-2022</t>
+          <t>A 47610-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44860</v>
+        <v>44852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11927,7 +11961,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11964,14 +11998,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 52068-2022</t>
+          <t>A 50124-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44873</v>
+        <v>44860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11984,7 +12018,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.9</v>
+        <v>6.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12021,14 +12055,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 52076-2022</t>
+          <t>A 52068-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12041,7 +12075,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12078,14 +12112,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 52063-2022</t>
+          <t>A 52076-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12098,7 +12132,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12135,14 +12169,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 61745-2022</t>
+          <t>A 52063-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44911</v>
+        <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12155,7 +12189,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12192,14 +12226,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 61752-2022</t>
+          <t>A 61745-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12211,13 +12245,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12254,14 +12283,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 559-2023</t>
+          <t>A 61752-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44925</v>
+        <v>44911</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12273,8 +12302,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12311,14 +12345,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 552-2023</t>
+          <t>A 559-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12331,7 +12365,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.6</v>
+        <v>8.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12368,14 +12402,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 7744-2023</t>
+          <t>A 552-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44973</v>
+        <v>44925</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12387,13 +12421,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12430,14 +12459,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 8746-2023</t>
+          <t>A 7744-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,8 +12478,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12487,14 +12521,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 8744-2023</t>
+          <t>A 8746-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12507,7 +12541,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12544,14 +12578,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 10378-2023</t>
+          <t>A 8744-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44987</v>
+        <v>44973</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,13 +12597,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>11</v>
+        <v>5.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12606,14 +12635,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 11664-2023</t>
+          <t>A 10378-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44992</v>
+        <v>44987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12625,8 +12654,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>8.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12663,14 +12697,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 11099-2023</t>
+          <t>A 11664-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12683,7 +12717,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12720,14 +12754,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 12171-2023</t>
+          <t>A 11099-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44998</v>
+        <v>44992</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12739,13 +12773,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12782,14 +12811,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 12170-2023</t>
+          <t>A 12171-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12807,7 +12836,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>19.6</v>
+        <v>7.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12844,14 +12873,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 13454-2023</t>
+          <t>A 12170-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45005</v>
+        <v>44998</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12863,8 +12892,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>19.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12901,14 +12935,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 13453-2023</t>
+          <t>A 13454-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12921,7 +12955,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12958,14 +12992,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 14033-2023</t>
+          <t>A 13453-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45007</v>
+        <v>45005</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12978,7 +13012,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>6.3</v>
+        <v>3.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13015,14 +13049,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 14617-2023</t>
+          <t>A 14033-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45013</v>
+        <v>45007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13035,7 +13069,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13072,14 +13106,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 14616-2023</t>
+          <t>A 14617-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13092,7 +13126,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13129,14 +13163,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 14827-2023</t>
+          <t>A 14616-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13149,7 +13183,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>17.9</v>
+        <v>2.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13186,14 +13220,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 14904-2023</t>
+          <t>A 14827-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45014</v>
+        <v>45013</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13206,7 +13240,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.5</v>
+        <v>17.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13243,14 +13277,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 14903-2023</t>
+          <t>A 14904-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13263,7 +13297,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13300,14 +13334,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 15084-2023</t>
+          <t>A 14903-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45016</v>
+        <v>45014</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13319,13 +13353,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13362,14 +13391,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 15083-2023</t>
+          <t>A 15084-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13387,7 +13416,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13424,14 +13453,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 15431-2023</t>
+          <t>A 15083-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13445,11 +13474,11 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13486,14 +13515,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 15429-2023</t>
+          <t>A 15431-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13511,7 +13540,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13548,14 +13577,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 16105-2023</t>
+          <t>A 15429-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13567,8 +13596,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13605,14 +13639,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 16103-2023</t>
+          <t>A 16105-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13625,7 +13659,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13662,14 +13696,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16238-2023</t>
+          <t>A 16103-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45028</v>
+        <v>45021</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13682,7 +13716,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13719,14 +13753,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 16955-2023</t>
+          <t>A 16238-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45029</v>
+        <v>45028</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13739,7 +13773,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13776,14 +13810,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 16396-2023</t>
+          <t>A 16955-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13796,7 +13830,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>6.3</v>
+        <v>4.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13833,14 +13867,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 16953-2023</t>
+          <t>A 16396-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13853,7 +13887,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.6</v>
+        <v>6.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13890,14 +13924,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 17038-2023</t>
+          <t>A 16953-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45034</v>
+        <v>45029</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13909,13 +13943,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13952,14 +13981,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 17075-2023</t>
+          <t>A 17038-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13977,7 +14006,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>8.1</v>
+        <v>3.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14014,14 +14043,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 18194-2023</t>
+          <t>A 17075-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14033,8 +14062,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>4</v>
+        <v>8.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14071,14 +14105,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 18384-2023</t>
+          <t>A 18194-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45042</v>
+        <v>45041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14090,13 +14124,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>14.8</v>
+        <v>4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14133,14 +14162,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 18745-2023</t>
+          <t>A 18384-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45043</v>
+        <v>45042</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14152,8 +14181,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>7.7</v>
+        <v>14.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14190,14 +14224,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 18744-2023</t>
+          <t>A 18745-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14210,7 +14244,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.1</v>
+        <v>7.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14247,14 +14281,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 19020-2023</t>
+          <t>A 18744-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45047</v>
+        <v>45043</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14267,7 +14301,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14304,14 +14338,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 19019-2023</t>
+          <t>A 19020-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14324,7 +14358,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14361,14 +14395,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 19254-2023</t>
+          <t>A 19019-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45049</v>
+        <v>45047</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14381,7 +14415,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14418,14 +14452,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 20381-2023</t>
+          <t>A 19254-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45056</v>
+        <v>45049</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14438,7 +14472,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14475,14 +14509,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 20378-2023</t>
+          <t>A 20381-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14495,7 +14529,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14532,14 +14566,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 21528-2023</t>
+          <t>A 20378-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45063</v>
+        <v>45056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14552,7 +14586,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14589,14 +14623,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 23542-2023</t>
+          <t>A 21528-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45077</v>
+        <v>45063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14608,13 +14642,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14651,14 +14680,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 23917-2023</t>
+          <t>A 23542-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45078</v>
+        <v>45077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14670,8 +14699,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14708,14 +14742,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 23791-2023</t>
+          <t>A 23917-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14727,13 +14761,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14770,14 +14799,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 25761-2023</t>
+          <t>A 23791-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45084</v>
+        <v>45078</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14789,8 +14818,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14827,14 +14861,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 26802-2023</t>
+          <t>A 25761-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45093</v>
+        <v>45084</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14847,7 +14881,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.6</v>
+        <v>6.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14884,14 +14918,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 27635-2023</t>
+          <t>A 26802-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14904,7 +14938,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14941,14 +14975,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 32686-2023</t>
+          <t>A 27635-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45112</v>
+        <v>45093</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14960,13 +14994,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>9.6</v>
+        <v>3.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15003,14 +15032,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 33909-2023</t>
+          <t>A 32686-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45122</v>
+        <v>45112</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15022,8 +15051,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>10.8</v>
+        <v>9.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15060,14 +15094,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 33377-2023</t>
+          <t>A 33909-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45128</v>
+        <v>45122</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15079,13 +15113,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>1.7</v>
+        <v>10.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15122,14 +15151,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 33376-2023</t>
+          <t>A 33377-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15147,7 +15176,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>5.9</v>
+        <v>1.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15184,14 +15213,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 33379-2023</t>
+          <t>A 33376-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15209,7 +15238,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.6</v>
+        <v>5.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15246,14 +15275,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 33378-2023</t>
+          <t>A 33379-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15271,7 +15300,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15308,14 +15337,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 34967-2023</t>
+          <t>A 33378-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45142</v>
+        <v>45128</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15329,11 +15358,11 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15370,14 +15399,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 37011-2023</t>
+          <t>A 34967-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45155</v>
+        <v>45142</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15391,11 +15420,11 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15432,14 +15461,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 40140-2023</t>
+          <t>A 37011-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45169</v>
+        <v>45155</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15453,11 +15482,11 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.7</v>
+        <v>7.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15494,14 +15523,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 45065-2023</t>
+          <t>A 40140-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45191</v>
+        <v>45169</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15515,11 +15544,11 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15556,14 +15585,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 45051-2023</t>
+          <t>A 45065-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
         <v>45191</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15581,7 +15610,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>8.9</v>
+        <v>4.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15615,17 +15644,17 @@
       </c>
       <c r="R246" s="2" t="inlineStr"/>
     </row>
-    <row r="247">
+    <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 45066-2023</t>
+          <t>A 45051-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
         <v>45191</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15643,39 +15672,287 @@
         </is>
       </c>
       <c r="G247" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" s="2" t="inlineStr"/>
+    </row>
+    <row r="248" ht="15" customHeight="1">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>A 45066-2023</t>
+        </is>
+      </c>
+      <c r="B248" s="1" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C248" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
         <v>3.7</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="n">
-        <v>0</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0</v>
-      </c>
-      <c r="L247" t="n">
-        <v>0</v>
-      </c>
-      <c r="M247" t="n">
-        <v>0</v>
-      </c>
-      <c r="N247" t="n">
-        <v>0</v>
-      </c>
-      <c r="O247" t="n">
-        <v>0</v>
-      </c>
-      <c r="P247" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q247" t="n">
-        <v>0</v>
-      </c>
-      <c r="R247" s="2" t="inlineStr"/>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" s="2" t="inlineStr"/>
+    </row>
+    <row r="249" ht="15" customHeight="1">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>A 46045-2023</t>
+        </is>
+      </c>
+      <c r="B249" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C249" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" s="2" t="inlineStr"/>
+    </row>
+    <row r="250" ht="15" customHeight="1">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>A 46041-2023</t>
+        </is>
+      </c>
+      <c r="B250" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C250" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" s="2" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>A 46036-2023</t>
+        </is>
+      </c>
+      <c r="B251" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C251" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45196</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44480</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44827</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44869</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45075</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>45077</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43328</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43353</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43356</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43452</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43549</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43553</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43570</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43584</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43621</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43633</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43635</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43643</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43661</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43679</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43685</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43720</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43735</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43752</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43769</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43774</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43784</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43842</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43859</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43881</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43882</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43888</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43893</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43913</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43914</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43948</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43969</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>44005</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44048</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44084</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>44090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44098</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>44116</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>44151</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44162</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44171</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44193</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44194</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>44218</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>44224</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>44239</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44244</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44257</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44264</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>44279</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44298</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>44308</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44342</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>44349</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>44360</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>44368</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44452</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44473</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44480</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44523</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44532</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44550</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44578</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44600</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44635</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44685</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44691</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44694</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44700</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44719</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>44799</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44805</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44816</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>44827</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>44848</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44849</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44911</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44925</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44973</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44992</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>44998</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45005</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>45013</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>45014</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>45016</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45020</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45021</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45028</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45029</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45034</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45042</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45043</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45047</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45049</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>45056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>45077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>45078</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>45084</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45093</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45112</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>45122</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45128</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>45142</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>45155</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45169</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>45191</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>45191</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45191</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>45196</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>45196</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>45196</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45196</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44480</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44827</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44869</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45075</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>45077</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43328</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43353</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43356</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43452</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43549</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43553</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43570</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43584</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43621</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43633</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43635</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43643</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43661</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43679</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43685</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43720</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43735</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43752</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43769</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43774</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43784</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43842</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43859</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43881</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43882</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43888</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43893</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43913</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43914</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43948</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43969</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>44005</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44048</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44084</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>44090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44098</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>44116</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>44151</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44162</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44171</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44193</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44194</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>44218</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>44224</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>44239</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44244</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44257</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44264</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>44279</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44298</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>44308</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44342</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>44349</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>44360</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>44368</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44452</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44473</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44480</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44523</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44532</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44550</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44578</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44600</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44635</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44685</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44691</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44694</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44700</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44719</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>44799</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44805</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44816</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>44827</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>44848</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44849</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44911</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44925</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44973</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44992</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>44998</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45005</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>45013</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>45014</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>45016</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45020</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45021</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45028</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45029</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45034</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45042</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45043</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45047</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45049</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>45056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>45077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>45078</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>45084</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45093</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45112</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>45122</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45128</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>45142</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>45155</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45169</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>45191</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>45191</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45191</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>45196</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>45196</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>45196</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y251"/>
+  <dimension ref="A1:Y252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43376</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43888</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45013</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43455</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>43807</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44213</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45196</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44480</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44827</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44869</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45075</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>45077</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43328</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43353</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43356</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43389</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43389</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43452</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43468</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43549</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43553</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43553</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43553</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43553</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43553</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43570</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43584</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43591</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43621</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43633</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43635</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43643</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43661</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43679</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43685</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43720</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43735</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43752</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43766</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43766</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43766</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43769</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43774</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43784</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43842</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43859</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43881</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>43882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43882</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43888</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43893</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43894</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43913</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43914</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43948</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43969</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>44005</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44048</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44084</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>44090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44098</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>44116</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>44151</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>44151</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44162</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44171</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44193</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44194</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>44218</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>44224</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>44239</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44244</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44257</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44264</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>44279</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44298</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>44308</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44342</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>44349</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>44349</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>44360</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>44368</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44452</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44473</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44480</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44480</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44523</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44523</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44532</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44550</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44578</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44600</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44635</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44685</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44691</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44691</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44694</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44700</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44719</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>44799</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44805</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44816</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44816</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>44827</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>44827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>44827</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>44827</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>44833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>44848</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44849</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44873</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>44873</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>44911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44911</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44925</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44925</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44973</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44973</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44992</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>44998</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45005</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>45013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>45013</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>45014</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>45014</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>45016</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>45016</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45020</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45020</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45021</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45028</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45029</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45029</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45034</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45041</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45042</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45043</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45043</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45047</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45047</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45049</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45056</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>45056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>45077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>45078</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>45084</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>45093</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45093</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45112</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>45122</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45128</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>45128</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>45128</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45128</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>45142</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>45155</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45169</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>45191</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>45191</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45191</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>45196</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>45196</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
       </c>
       <c r="R250" s="2" t="inlineStr"/>
     </row>
-    <row r="251">
+    <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
           <t>A 46036-2023</t>
@@ -15902,7 +15902,7 @@
         <v>45196</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15953,6 +15953,68 @@
         <v>0</v>
       </c>
       <c r="R251" s="2" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>A 48177-2023</t>
+        </is>
+      </c>
+      <c r="B252" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C252" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
